--- a/test1diff.xlsx
+++ b/test1diff.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --out test1diff.xlsx</t>
+          <t>xltablediff.py --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -509,21 +509,17 @@
       <c r="G3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Diff test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --out test1diff.xlsx</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -533,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Merge test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --merge=Color --out test1merge.xlsx</t>
+          <t>Diff test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -550,7 +546,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apend test: ./xltablediff.py --newSheet=Sheet2 --key=ID test1in.xlsx test1in.xlsx --append --out test1append.xlsx</t>
+          <t>Merge test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --merge=Color --out test1merge.xlsx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -565,7 +561,11 @@
           <t>=</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Append test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --append --out test1append.xlsx</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -573,311 +573,287 @@
       <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Fruit</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>Shape</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>2022-11-01 00:00:00</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>2022-11-01 00:00:00</t>
         </is>
       </c>
-      <c r="C11" s="1" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D12" s="1" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr"/>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>grapes</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>pebbles</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>yellow-pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>yellow</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>mango</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>plum</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>purple</t>
         </is>
       </c>
     </row>
@@ -889,22 +865,22 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>2022-11-06 00:00:00</t>
+          <t>2022-11-03 00:00:00</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>tangerine</t>
+          <t>plum</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="F17" s="5" t="inlineStr">
@@ -914,7 +890,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>purple</t>
         </is>
       </c>
     </row>
@@ -926,261 +902,285 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
+          <t>2022-11-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>tangerine</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>round</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>spikey</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-21 00:00:00</t>
-        </is>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>dried mango</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>flat</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>dried mango</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>flat</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>2022-11-21 00:00:00</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>2022-11-07 00:00:00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>acorn</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>2022-11-20 00:00:00</t>
         </is>
       </c>
-      <c r="C22" s="1" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr"/>
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>papaya</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>elongated</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>pink</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>papaya</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>elongated</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>elongated</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr"/>
-      <c r="D25" s="1" t="inlineStr"/>
-      <c r="E25" s="1" t="inlineStr"/>
-      <c r="F25" s="1" t="inlineStr"/>
-      <c r="G25" s="1" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1188,17 +1188,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
+      <c r="B26" s="1" t="inlineStr"/>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr"/>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr"/>
       <c r="G26" s="1" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Trailing row here</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr"/>
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test1diff.xlsx
+++ b/test1diff.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>xltablediff.py --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+          <t>xltablediff.py --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -529,10 +529,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diff test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>Diff test:</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID test1old.xlsx test1new.xlsx --out test1diff.xlsx</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -546,10 +550,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Merge test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --merge=Color --out test1merge.xlsx</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>Merge test:</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -563,10 +571,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Append test:  xltablediff.py  --key=ID test1old.xlsx test1new.xlsx --append --out test1append.xlsx</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>Append test:</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>

--- a/test1diff.xlsx
+++ b/test1diff.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,12 +550,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Merge test:</t>
+          <t>Ignore test:</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
+          <t>xltablediff.py  --key ID --ignore Color test1old.xlsx test1new.xlsx --out test1ignore.xlsx</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -571,12 +571,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Append test:</t>
+          <t>Merge test:</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
+          <t>xltablediff.py  --key ID --merge Color test1old.xlsx test1new.xlsx --out test1merge.xlsx</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -590,319 +590,303 @@
           <t>=</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Append test:</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Fruit</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Shape</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>2022-11-01 00:00:00</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>2022-11-01 00:00:00</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr"/>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr"/>
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>grapes</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>pebbles</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>yellow-pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>yellow</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C16" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>mango</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G17" s="6" t="inlineStr">
         <is>
           <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>plum</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>purple</t>
         </is>
       </c>
     </row>
@@ -914,22 +898,22 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>2022-11-06 00:00:00</t>
+          <t>2022-11-03 00:00:00</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tangerine</t>
+          <t>plum</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="F18" s="5" t="inlineStr">
@@ -939,7 +923,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>purple</t>
         </is>
       </c>
     </row>
@@ -951,261 +935,285 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
+          <t>2022-11-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>tangerine</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>round</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>spikey</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-21 00:00:00</t>
-        </is>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="inlineStr">
-        <is>
-          <t>dried mango</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>flat</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>dried mango</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>flat</t>
+        </is>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>2022-11-21 00:00:00</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>2022-11-07 00:00:00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>acorn</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>2022-11-20 00:00:00</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr"/>
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="C24" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>papaya</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>elongated</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>pink</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>papaya</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>elongated</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>elongated</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr"/>
-      <c r="C26" s="1" t="inlineStr"/>
-      <c r="D26" s="1" t="inlineStr"/>
-      <c r="E26" s="1" t="inlineStr"/>
-      <c r="F26" s="1" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1213,17 +1221,30 @@
           <t>-</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
+      <c r="B27" s="1" t="inlineStr"/>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr"/>
       <c r="G27" s="1" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Trailing row here</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr"/>
+      <c r="D28" s="1" t="inlineStr"/>
+      <c r="E28" s="1" t="inlineStr"/>
+      <c r="F28" s="1" t="inlineStr"/>
+      <c r="G28" s="1" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test1diff.xlsx
+++ b/test1diff.xlsx
@@ -60,7 +60,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDFFE2"/>
+        <fgColor rgb="00CCFFC2"/>
       </patternFill>
     </fill>
   </fills>

--- a/test1diff.xlsx
+++ b/test1diff.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,11 @@
           <t>+</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Extra row here in TableNew</t>
+        </is>
+      </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
@@ -592,12 +596,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Append test:</t>
+          <t>oldAppend test:</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>xltablediff.py  --key ID --append test1old.xlsx test1new.xlsx --out test1append.xlsx</t>
+          <t>xltablediff.py  --key ID --oldAppend test1old.xlsx test1new.xlsx --out test1oldAppend.xlsx</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -611,356 +615,332 @@
           <t>=</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>newAppend test:</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>xltablediff.py  --key ID --newAppend test1old.xlsx test1new.xlsx --out test1newAppend.xlsx</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Fruit</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>Origin</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>Origin</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Fruit</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr">
         <is>
           <t>Shape</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>grapefruit</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>bigRound</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>2022-11-01 00:00:00</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>apricot</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>red-orange</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>2022-11-01 00:00:00</t>
         </is>
       </c>
-      <c r="C13" s="1" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
       </c>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr"/>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>grapes</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>pebbles</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>peach</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E17" s="4" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>yellow-pink</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>c-</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>mango</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G19" s="6" t="inlineStr">
         <is>
           <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>plum</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>tangerine</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>California</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>orange</t>
         </is>
       </c>
     </row>
@@ -972,278 +952,352 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
+          <t>2022-11-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>plum</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>Alabama</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>round</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>tangerine</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>round</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>spikey</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>c-</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>2022-11-21 00:00:00</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D21" s="6" t="inlineStr">
+      <c r="D23" s="6" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G21" s="6" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="G23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>2022-11-21 00:00:00</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E24" s="4" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>2022-11-07 00:00:00</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="F23" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>acorn</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>2022-11-20 00:00:00</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C26" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D26" s="1" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr"/>
+      <c r="G26" s="1" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>c-</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D25" s="6" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>elongated</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E28" s="4" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
+      <c r="F28" s="5" t="inlineStr">
         <is>
           <t>elongated</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr"/>
-      <c r="D27" s="1" t="inlineStr"/>
-      <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" s="1" t="inlineStr"/>
-      <c r="G27" s="1" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr"/>
+      <c r="C29" s="1" t="inlineStr"/>
+      <c r="D29" s="1" t="inlineStr"/>
+      <c r="E29" s="1" t="inlineStr"/>
+      <c r="F29" s="1" t="inlineStr"/>
+      <c r="G29" s="1" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>Trailing row here</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr"/>
-      <c r="D28" s="1" t="inlineStr"/>
-      <c r="E28" s="1" t="inlineStr"/>
-      <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr"/>
+      <c r="D30" s="1" t="inlineStr"/>
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" s="1" t="inlineStr"/>
+      <c r="G30" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test1diff.xlsx
+++ b/test1diff.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,249 +735,245 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>apricot</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>roundish</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>red-orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>c+</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>apricot</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>roundish</t>
+        </is>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>apple</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Maine</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr"/>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>red</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>grapes</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>pebbles</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>purple</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>apricot</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>peach</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>roundish</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>red-orange</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-01 00:00:00</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>apple</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>Maine</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr">
-        <is>
-          <t>red</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr"/>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>grapes</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>pebbles</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>purple</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>peach</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>roundish</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>yellow-pink</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>banana</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>Chile</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>oval</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
-        <is>
-          <t>yellow</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>banana</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>oval</t>
+        </is>
+      </c>
+      <c r="G19" s="6" t="inlineStr">
+        <is>
+          <t>yellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>mango</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="E20" s="4" t="inlineStr">
         <is>
           <t>Chile</t>
         </is>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>oval</t>
         </is>
       </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-03 00:00:00</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>plum</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>Alabama</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>round</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>purple</t>
         </is>
       </c>
     </row>
@@ -989,22 +985,22 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>2022-11-06 00:00:00</t>
+          <t>2022-11-03 00:00:00</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>tangerine</t>
+          <t>plum</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="F21" s="5" t="inlineStr">
@@ -1014,7 +1010,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>purple</t>
         </is>
       </c>
     </row>
@@ -1026,278 +1022,285 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
+          <t>2022-11-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>tangerine</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>round</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
           <t>2022-11-05 00:00:00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>pineapple</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F23" s="5" t="inlineStr">
         <is>
           <t>spikey</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>green-yellow</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-21 00:00:00</t>
-        </is>
-      </c>
-      <c r="C23" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="inlineStr">
-        <is>
-          <t>dried mango</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>flat</t>
-        </is>
-      </c>
-      <c r="G23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
+        <is>
+          <t>dried mango</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>flat</t>
+        </is>
+      </c>
+      <c r="G24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>2022-11-21 00:00:00</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>dried mango</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>Thailand</t>
         </is>
       </c>
-      <c r="F24" s="5" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>2022-11-07 00:00:00</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>persimmon</t>
         </is>
       </c>
-      <c r="E25" s="4" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>Iran</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F26" s="5" t="inlineStr">
         <is>
           <t>acorn</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>deep orange</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>2022-11-20 00:00:00</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
+      <c r="C27" s="1" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D27" s="1" t="inlineStr">
         <is>
           <t>coconut</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr"/>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>brown</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>c-</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-02 00:00:00</t>
-        </is>
-      </c>
-      <c r="C27" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
-        <is>
-          <t>papaya</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>Fiji</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>elongated</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
-        <is>
-          <t>pink</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
+          <t>c-</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" s="6" t="inlineStr">
+        <is>
+          <t>papaya</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>elongated</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>pink</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
           <t>c+</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>2022-11-02 00:00:00</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>papaya</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E29" s="4" t="inlineStr">
         <is>
           <t>Fiji</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>elongated</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>salmon</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr"/>
-      <c r="C29" s="1" t="inlineStr"/>
-      <c r="D29" s="1" t="inlineStr"/>
-      <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" s="1" t="inlineStr"/>
-      <c r="G29" s="1" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>Trailing row here</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr"/>
-      <c r="D30" s="1" t="inlineStr"/>
-      <c r="E30" s="1" t="inlineStr"/>
-      <c r="F30" s="1" t="inlineStr"/>
-      <c r="G30" s="1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
